--- a/DATA/1.xlsx
+++ b/DATA/1.xlsx
@@ -6759,8 +6759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="A489" sqref="A489:XFD489"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
